--- a/carteira_servicos_MBP/n8n/abastecimento_fora_do_prazo.xlsx
+++ b/carteira_servicos_MBP/n8n/abastecimento_fora_do_prazo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Número OS</t>
   </si>
@@ -37,16 +37,37 @@
     <t>Prazo</t>
   </si>
   <si>
-    <t>2524809445</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AVENIDA AGUA FRIA</t>
-  </si>
-  <si>
-    <t>MUITA PRESSÃO DE ÁGUA</t>
-  </si>
-  <si>
-    <t>Santana</t>
+    <t>2527128755</t>
+  </si>
+  <si>
+    <t>2526921650</t>
+  </si>
+  <si>
+    <t>2527126920</t>
+  </si>
+  <si>
+    <t>2527128783</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AVENIDA COMENDADOR FEIZ ZARZUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA FRANCISCO ANTUNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUA POETA CASTRO ALVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AVENIDA ESTILAC LEAL</t>
+  </si>
+  <si>
+    <t>FALTA DE ÁGUA GERAL</t>
+  </si>
+  <si>
+    <t>Freguesia</t>
+  </si>
+  <si>
+    <t>Gopoúva</t>
   </si>
   <si>
     <t>ABASTECIMENTO</t>
@@ -410,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,22 +465,91 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>26.26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>94.41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>27.94</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>36.77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>26.24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
